--- a/Model/pred_input.xlsx
+++ b/Model/pred_input.xlsx
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1230,13 +1230,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AL2">
         <v>0</v>
